--- a/src/pom/ExcelData/LeaveAndAttendance/RosterDefinition.xlsx
+++ b/src/pom/ExcelData/LeaveAndAttendance/RosterDefinition.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="RosterDefinition" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -46,34 +46,34 @@
     <t>Week OF 02</t>
   </si>
   <si>
-    <t>HOUSEKEEPING</t>
-  </si>
-  <si>
-    <t>OCT</t>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>NOV</t>
   </si>
   <si>
     <t>Empname</t>
   </si>
   <si>
-    <t xml:space="preserve">00014 Ka Chun Michael NG </t>
+    <t>00005 Shinde Shraddha</t>
   </si>
   <si>
     <t>WO</t>
   </si>
   <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
     <t>02/10/2017</t>
   </si>
   <si>
-    <t>06/10/2017</t>
-  </si>
-  <si>
     <t>SUN</t>
   </si>
   <si>
-    <t xml:space="preserve">00174 CHAN Lai King </t>
-  </si>
-  <si>
-    <t>07/10/2017</t>
+    <t>09</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
   </si>
 </sst>
 </file>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -120,18 +120,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -153,13 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -182,7 +176,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -533,7 +527,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -626,13 +620,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>19</v>
